--- a/QaLegendBilling/src/main/resources/excelreader/Book1.xlsx
+++ b/QaLegendBilling/src/main/resources/excelreader/Book1.xlsx
@@ -44,9 +44,6 @@
     <t>Inc. tax</t>
   </si>
   <si>
-    <t>Diaper</t>
-  </si>
-  <si>
     <t>Right Now</t>
   </si>
   <si>
@@ -54,6 +51,9 @@
   </si>
   <si>
     <t>Dress</t>
+  </si>
+  <si>
+    <t>Baby Diaper</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,16 +482,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
       </c>
       <c r="E2">
         <v>2</v>
